--- a/ActivityLog_TimeSheet.xlsx
+++ b/ActivityLog_TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Github\CS3343Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2DD193F-616A-4AB9-BA00-F0F45FDFE0BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56FAA429-3E7B-4939-AACE-C62D7BC34291}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t>Design a high-level concept of project</t>
   </si>
   <si>
-    <t>Design detail, draw UML diagram and write the prototype of project</t>
+    <t>Design detail, draw UML diagram, develop preprocess and query module</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1678,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ActivityLog_TimeSheet.xlsx
+++ b/ActivityLog_TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Github\CS3343Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56FAA429-3E7B-4939-AACE-C62D7BC34291}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6EF54912-69AB-4DA6-BE86-FD270E35677F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Course</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Design detail, draw UML diagram, develop preprocess and query module</t>
+  </si>
+  <si>
+    <t>Finish release 1. Implement Preprocess and query module</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1143,7 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1292,9 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1300,7 +1305,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="27">
         <f>SUM(C10:O10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="22" t="str">
         <f>B10</f>
@@ -1339,7 +1344,9 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1350,7 +1357,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="27">
         <f t="shared" ref="P11:P14" si="0">SUM(C11:O11)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="22" t="str">
         <f t="shared" ref="Q11:Q14" si="1">B11</f>
@@ -1389,7 +1396,9 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1400,7 +1409,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1439,7 +1448,9 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1450,7 +1461,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1489,7 +1500,9 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1500,7 +1513,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1590,7 +1603,7 @@
       </c>
       <c r="G17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="37">
         <f t="shared" si="3"/>
@@ -1626,7 +1639,7 @@
       </c>
       <c r="P17" s="39">
         <f>SUM(C17:O17)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>25</v>
@@ -1678,7 +1691,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1747,8 +1760,12 @@
       <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">

--- a/ActivityLog_TimeSheet.xlsx
+++ b/ActivityLog_TimeSheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Github\CS3343Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6EF54912-69AB-4DA6-BE86-FD270E35677F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Group Contribution Log" sheetId="3" r:id="rId1"/>
     <sheet name="Weekly Activity Log" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Course</t>
   </si>
@@ -173,12 +172,18 @@
   </si>
   <si>
     <t>Finish release 1. Implement Preprocess and query module</t>
+  </si>
+  <si>
+    <t>Unit testing for release 1.</t>
+  </si>
+  <si>
+    <t>Unit testing for release 1. Fix bug found in release 1.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,27 +789,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -820,7 +825,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -895,23 +900,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -947,23 +935,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1139,25 +1110,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.88671875" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1173,7 +1144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1206,8 +1177,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1244,7 @@
       </c>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="48">
         <v>12345678</v>
       </c>
@@ -1295,8 +1266,12 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1305,7 +1280,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="27">
         <f>SUM(C10:O10)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="22" t="str">
         <f>B10</f>
@@ -1327,7 +1302,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="52" t="s">
         <v>39</v>
@@ -1347,8 +1322,12 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1357,7 +1336,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="27">
         <f t="shared" ref="P11:P14" si="0">SUM(C11:O11)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="22" t="str">
         <f t="shared" ref="Q11:Q14" si="1">B11</f>
@@ -1379,7 +1358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="52" t="s">
         <v>40</v>
@@ -1399,8 +1378,12 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1409,7 +1392,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q12" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1431,7 +1414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="52" t="s">
         <v>41</v>
@@ -1451,8 +1434,12 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -1461,7 +1448,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q13" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1483,7 +1470,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="52" t="s">
         <v>42</v>
@@ -1503,8 +1490,12 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1513,7 +1504,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1535,7 +1526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="8"/>
@@ -1558,7 +1549,7 @@
       <c r="T15" s="23"/>
       <c r="U15" s="30"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="50"/>
       <c r="B16" s="51"/>
       <c r="C16" s="10"/>
@@ -1581,7 +1572,7 @@
       <c r="T16" s="25"/>
       <c r="U16" s="31"/>
     </row>
-    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1607,11 +1598,11 @@
       </c>
       <c r="H17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="37">
         <f t="shared" si="3"/>
@@ -1639,7 +1630,7 @@
       </c>
       <c r="P17" s="39">
         <f>SUM(C17:O17)</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>25</v>
@@ -1656,7 +1647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P18" s="6"/>
       <c r="T18" s="32" t="s">
         <v>25</v>
@@ -1666,7 +1657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="T19" s="32" t="s">
         <v>27</v>
       </c>
@@ -1687,21 +1678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="2"/>
-    <col min="2" max="2" width="118.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="2"/>
+    <col min="2" max="2" width="118.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -1712,7 +1703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
@@ -1767,63 +1758,71 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
-    </row>
-    <row r="9" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="43"/>
     </row>
-    <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="43"/>
     </row>
-    <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="43"/>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="43"/>
     </row>
-    <row r="15" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="43"/>

--- a/ActivityLog_TimeSheet.xlsx
+++ b/ActivityLog_TimeSheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B9747FA1-C0FD-44D9-B7AC-AA2C1BBFBD50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Contribution Log" sheetId="3" r:id="rId1"/>
     <sheet name="Weekly Activity Log" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>Course</t>
   </si>
@@ -178,12 +179,15 @@
   </si>
   <si>
     <t>Unit testing for release 1. Fix bug found in release 1.</t>
+  </si>
+  <si>
+    <t>Develop verison 2(Page rank algorithm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,27 +793,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -825,7 +829,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -900,6 +904,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -935,6 +956,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1110,25 +1148,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -1144,7 +1182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1160,7 +1198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1177,8 +1215,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1282,7 @@
       </c>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
         <v>12345678</v>
       </c>
@@ -1302,7 +1340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="52" t="s">
         <v>39</v>
@@ -1358,7 +1396,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="52" t="s">
         <v>40</v>
@@ -1414,7 +1452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="52" t="s">
         <v>41</v>
@@ -1470,7 +1508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="52" t="s">
         <v>42</v>
@@ -1526,7 +1564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="8"/>
@@ -1549,7 +1587,7 @@
       <c r="T15" s="23"/>
       <c r="U15" s="30"/>
     </row>
-    <row r="16" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="50"/>
       <c r="B16" s="51"/>
       <c r="C16" s="10"/>
@@ -1572,7 +1610,7 @@
       <c r="T16" s="25"/>
       <c r="U16" s="31"/>
     </row>
-    <row r="17" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +1685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="P18" s="6"/>
       <c r="T18" s="32" t="s">
         <v>25</v>
@@ -1657,7 +1695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="T19" s="32" t="s">
         <v>27</v>
       </c>
@@ -1678,21 +1716,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="2"/>
-    <col min="2" max="2" width="118.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="2"/>
+    <col min="2" max="2" width="118.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>31</v>
       </c>
@@ -1703,7 +1741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
@@ -1725,7 +1763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
@@ -1758,7 +1796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +1807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>8</v>
       </c>
@@ -1780,49 +1818,53 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="43"/>
     </row>
-    <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="43"/>
     </row>
-    <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="43"/>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="43"/>
     </row>
-    <row r="15" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
       <c r="C15" s="43"/>

--- a/ActivityLog_TimeSheet.xlsx
+++ b/ActivityLog_TimeSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Github\CS3343Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B9747FA1-C0FD-44D9-B7AC-AA2C1BBFBD50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{341F04C6-5B6D-473F-AEE1-CADF9C8D58D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Contribution Log" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Course</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Develop verison 2(Page rank algorithm)</t>
+  </si>
+  <si>
+    <t>Unit testing for release 2. Integration testing.</t>
+  </si>
+  <si>
+    <t>Summarize bug reports. Prepare for presentation.</t>
+  </si>
+  <si>
+    <t>Fix bug found in release 2. Integration testing.</t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,15 +1319,23 @@
       <c r="I10" s="7">
         <v>1</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="27">
         <f>SUM(C10:O10)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="22" t="str">
         <f>B10</f>
@@ -1366,15 +1383,23 @@
       <c r="I11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="27">
         <f t="shared" ref="P11:P14" si="0">SUM(C11:O11)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="22" t="str">
         <f t="shared" ref="Q11:Q14" si="1">B11</f>
@@ -1422,15 +1447,23 @@
       <c r="I12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1478,15 +1511,23 @@
       <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1534,15 +1575,23 @@
       <c r="I14" s="7">
         <v>1</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="22" t="str">
         <f t="shared" si="1"/>
@@ -1644,19 +1693,19 @@
       </c>
       <c r="J17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17" s="37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="37">
         <f t="shared" si="3"/>
@@ -1668,7 +1717,7 @@
       </c>
       <c r="P17" s="39">
         <f>SUM(C17:O17)</f>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="17" t="s">
         <v>25</v>
@@ -1719,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1833,22 +1882,34 @@
       <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
